--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -9,25 +9,73 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="DVfL+BUy+aZCTYfDu9GbsZp9WhxEwHGTld0ajtEe+5g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="K/7zLkMIIWVzNvluk12taHIMM1xi0yOdz+dttSuaLh4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Celular</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Talla</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
   <si>
     <t># de guia</t>
+  </si>
+  <si>
+    <t>CINTURILLA_SOLA</t>
+  </si>
+  <si>
+    <t>Daniela Monsalve</t>
+  </si>
+  <si>
+    <t>Calle 76,Bogota</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>PENDIENTE_COMPRA_DROPI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12.0"/>
@@ -36,9 +84,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,12 +103,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,6 +328,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="10" max="10" width="22.11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -282,23 +339,70 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>3.045993015E9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.23456789E9</v>
+      <c r="A2" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.183390467E9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.73183390467E11</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45704.0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.21212121212E11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>3.183390467E9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9.87654321E8</v>
-      </c>
-    </row>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1278,7 +1382,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
